--- a/medicine/Enfance/Uwe_Timm/Uwe_Timm.xlsx
+++ b/medicine/Enfance/Uwe_Timm/Uwe_Timm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uwe Timm, né le 30 mars 1940 à Hambourg, est un écrivain allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Troisième enfant de Hans et Anna Timm, il a 3 ans quand il est évacué avec sa famille de Cobourg pendant la Seconde Guerre mondiale. À la fin de l'été 1945, la famille rentre à Hambourg et le père, un pelletier, fonde une entreprise de peaux et fourrures. Après ses études, Uwe Timm, qui a terminé son apprentissage en 1958, reprend les affaires de son père, lourdement endetté et qui meurt le 1er septembre 1958. Après avoir redressé l'entreprise, Uwe Timm s'inscrit en 1961 au Braunschweig-Kolleg (de) que fréquente également Benno Ohnesorg, et publie ses premiers poèmes.
 Il quitte le collège en mars 1963 et il rencontre Jutta Kosjek qui sera la mère de sa première fille Katharina, née en mai 1964. Il s'installe cette même année à Munich pour étudier la philosophie et la littérature allemande à l'université Louis-et-Maximilien de Munich où il a comme professeurs le philosophe Max Müller (élève de Martin Heidegger), le médiéviste Hugo Kuhn et le germaniste Walter Müller-Seidel.
@@ -556,8 +570,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-1974 : Heißer Sommer
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1974 : Heißer Sommer
 1978 : Morenga
 1980 : Kerbels Flucht
 1984 : Der Mann auf dem Hochrad Publié en français sous le titre L'Homme au vélocipède, traduit par Bernard Kreiss, Paris, Balland, 1986, 262 p.  (ISBN 2-7158-0571-3) ; réédition sous le titre L'Homme au grand-bi, illustrations de Sophia Martineck, Paris, éditions le Nouvel Attila, 2016  (ISBN 978-2-37100-028-5) ; réédition, Paris, 10/18 coll. « Littérature étrangère » no 5329, 2018, 240 p.  (ISBN 978-2-264-07107-1)
@@ -567,28 +586,164 @@
 2001 : Rot
 2008 : Halbschatten, roman sur Marga von Etzdorf
 2013 : Vogelweide Publié en français sous le titre Le Refuge aux oiseaux traduit par Frédéric Joly, Paris, Piranha, 2017, 336 p.  (ISBN 978-2-37119-008-5)
-2017 : Ikarien
-Récits autobiographiques
-1999 : Nicht morgen, nicht gestern
+2017 : Ikarien</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Récits autobiographiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1999 : Nicht morgen, nicht gestern
 2003 : Am Beispiel meines Bruders Publié en français sous le titre À l’exemple de mon frère, traduit par de Bernard Kreiss, Paris, Albin Michel, 2005, 189 p.  (ISBN 2-226-15863-4)
-2005 : Der Freund und der Fremde
-Ouvrages de littérature d'enfance et de jeunesse
-1981 : Die Zugmaus, illustrations de Tatjana Hauptmann
+2005 : Der Freund und der Fremde</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1981 : Die Zugmaus, illustrations de Tatjana Hauptmann
 1983 : Die Piratenamsel, illustrations de Gunnar Matysiak
 1989 : Rennschwein Rudi Rüssel, illustrations de Gunnar Matysiak Publié en français sous le titre Rudi la Truffe, cochon de course, illustrations de Catherine Louis, traduit par Bernard Friot, Toulouse, éditions Milan, coll. « Zanzibar », 1993, 213 p.  (ISBN 2-86726-860-5)
 1989 : Vogel, friss die Feige nicht
 1993 : Die Entdeckung der Currywurst Publié en français sous le titre La Découverte de la saucisse au curry, traduit par Bernard Kreiss, Paris, éditions du Seuil, 1996, 186 p.  (ISBN 2-02-022105-5)
 1995 : Der Schatz auf Pagensand
-2011 : Freitisch
-Essais
-1971 : Das Problem der Absurdität bei Albert Camus
+2011 : Freitisch</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1971 : Das Problem der Absurdität bei Albert Camus
 1971 : Widersprüche
 1977 : Wolfenbütteler Straße 53
 1993 : Erzählen und kein Ende. Versuche zu einer Ästhetik des Alltags
 2009 : Von Anfang und Ende. Über die Lesbarkeit der Welt
-2015 : Montaignes Turm
-Pièces radiophoniques
-1972 : Herbert oder die Vorbereitung auf die Olympiade
+2015 : Montaignes Turm</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Pièces radiophoniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1972 : Herbert oder die Vorbereitung auf die Olympiade
 1972 : Die Steppensau
 1984 : Lauschangriff
 1994 : Die Piratenamsel
@@ -597,41 +752,80 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Uwe_Timm</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Uwe_Timm</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Scénarios
-1984 : Kerbels Flucht, téléfilm allemand réalisé par Erwin Keusch, scénario de Uwe Timm d'après son roman éponyme
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1984 : Kerbels Flucht, téléfilm allemand réalisé par Erwin Keusch, scénario de Uwe Timm d'après son roman éponyme
 1987 : Der Flieger, film allemand réalisé par Erwin Keusch sur un scénario original de Uwe Timm
 1995 : Rennschwein Rudi Rüssel, film allemand réalisé par Peter Timm, scénario de Uwe Timm d'après son roman éponyme
 1997 : Die Bubi Scholz Story, téléfilm allemand réalisé par Roland Suso Richter, scénario original de Uwe Timm
 2000 : Eine Handvoll Gras, film allemand réalisé par Roland Suso Richter, scénario original de Uwe Timm
-2007 : Rennschwein Rudi Rüssel 2 - Rudi rennt wieder!, film allemand réalisé par Peter Timm, scénario de Uwe Timm d'après son roman éponyme
-Adaptations par des tiers
-1985 : Morenga, film allemand écrit et réalisé par Egon Günther, d'après le roman éponyme de Uwe Timm
+2007 : Rennschwein Rudi Rüssel 2 - Rudi rennt wieder!, film allemand réalisé par Peter Timm, scénario de Uwe Timm d'après son roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Uwe_Timm</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Adaptations par des tiers</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1985 : Morenga, film allemand écrit et réalisé par Egon Günther, d'après le roman éponyme de Uwe Timm
 2003 : Der Herr der Wüste, téléfilm allemand réalisé par Vivian Naefe, d'après un roman de Uwe Timm
 2007 : Rennschwein Rudi Rüssel, série télévisée allemande d'après le roman de Uwe Timm
 2008 : Die Entdeckung der Currywurst, film allemand réalisé par Ulla Wagner, scénario de la réalisatrice d'après le roman éponyme de Uwe Timm, avec Barbara Sukowa
